--- a/data_xlsx/上证综合指数.xlsx
+++ b/data_xlsx/上证综合指数.xlsx
@@ -45658,8 +45658,88 @@
         <v>3205.5748</v>
       </c>
     </row>
+    <row r="5698">
+      <c r="A5698" s="1" t="n">
+        <v>45114.0</v>
+      </c>
+      <c r="B5698" s="2" t="n">
+        <v>3196.6092</v>
+      </c>
+    </row>
     <row r="5699">
-      <c r="A5699" s="3" t="inlineStr">
+      <c r="A5699" s="1" t="n">
+        <v>45117.0</v>
+      </c>
+      <c r="B5699" s="2" t="n">
+        <v>3203.6958</v>
+      </c>
+    </row>
+    <row r="5700">
+      <c r="A5700" s="1" t="n">
+        <v>45118.0</v>
+      </c>
+      <c r="B5700" s="2" t="n">
+        <v>3221.3666</v>
+      </c>
+    </row>
+    <row r="5701">
+      <c r="A5701" s="1" t="n">
+        <v>45119.0</v>
+      </c>
+      <c r="B5701" s="2" t="n">
+        <v>3196.1337</v>
+      </c>
+    </row>
+    <row r="5702">
+      <c r="A5702" s="1" t="n">
+        <v>45120.0</v>
+      </c>
+      <c r="B5702" s="2" t="n">
+        <v>3236.48</v>
+      </c>
+    </row>
+    <row r="5703">
+      <c r="A5703" s="1" t="n">
+        <v>45121.0</v>
+      </c>
+      <c r="B5703" s="2" t="n">
+        <v>3237.7012</v>
+      </c>
+    </row>
+    <row r="5704">
+      <c r="A5704" s="1" t="n">
+        <v>45124.0</v>
+      </c>
+      <c r="B5704" s="2" t="n">
+        <v>3209.6298</v>
+      </c>
+    </row>
+    <row r="5705">
+      <c r="A5705" s="1" t="n">
+        <v>45125.0</v>
+      </c>
+      <c r="B5705" s="2" t="n">
+        <v>3197.8201</v>
+      </c>
+    </row>
+    <row r="5706">
+      <c r="A5706" s="1" t="n">
+        <v>45126.0</v>
+      </c>
+      <c r="B5706" s="2" t="n">
+        <v>3198.8358</v>
+      </c>
+    </row>
+    <row r="5707">
+      <c r="A5707" s="1" t="n">
+        <v>45127.0</v>
+      </c>
+      <c r="B5707" s="2" t="n">
+        <v>3169.522</v>
+      </c>
+    </row>
+    <row r="5709">
+      <c r="A5709" s="3" t="inlineStr">
         <is>
           <t>数据来源：Wind</t>
         </is>

--- a/data_xlsx/上证综合指数.xlsx
+++ b/data_xlsx/上证综合指数.xlsx
@@ -45738,8 +45738,208 @@
         <v>3169.522</v>
       </c>
     </row>
+    <row r="5708">
+      <c r="A5708" s="1" t="n">
+        <v>45128.0</v>
+      </c>
+      <c r="B5708" s="2" t="n">
+        <v>3167.7452</v>
+      </c>
+    </row>
     <row r="5709">
-      <c r="A5709" s="3" t="inlineStr">
+      <c r="A5709" s="1" t="n">
+        <v>45131.0</v>
+      </c>
+      <c r="B5709" s="2" t="n">
+        <v>3164.1608</v>
+      </c>
+    </row>
+    <row r="5710">
+      <c r="A5710" s="1" t="n">
+        <v>45132.0</v>
+      </c>
+      <c r="B5710" s="2" t="n">
+        <v>3231.5213</v>
+      </c>
+    </row>
+    <row r="5711">
+      <c r="A5711" s="1" t="n">
+        <v>45133.0</v>
+      </c>
+      <c r="B5711" s="2" t="n">
+        <v>3223.0279</v>
+      </c>
+    </row>
+    <row r="5712">
+      <c r="A5712" s="1" t="n">
+        <v>45134.0</v>
+      </c>
+      <c r="B5712" s="2" t="n">
+        <v>3216.6709</v>
+      </c>
+    </row>
+    <row r="5713">
+      <c r="A5713" s="1" t="n">
+        <v>45135.0</v>
+      </c>
+      <c r="B5713" s="2" t="n">
+        <v>3275.9257</v>
+      </c>
+    </row>
+    <row r="5714">
+      <c r="A5714" s="1" t="n">
+        <v>45138.0</v>
+      </c>
+      <c r="B5714" s="2" t="n">
+        <v>3291.0398</v>
+      </c>
+    </row>
+    <row r="5715">
+      <c r="A5715" s="1" t="n">
+        <v>45139.0</v>
+      </c>
+      <c r="B5715" s="2" t="n">
+        <v>3290.9493</v>
+      </c>
+    </row>
+    <row r="5716">
+      <c r="A5716" s="1" t="n">
+        <v>45140.0</v>
+      </c>
+      <c r="B5716" s="2" t="n">
+        <v>3261.6903</v>
+      </c>
+    </row>
+    <row r="5717">
+      <c r="A5717" s="1" t="n">
+        <v>45141.0</v>
+      </c>
+      <c r="B5717" s="2" t="n">
+        <v>3280.4626</v>
+      </c>
+    </row>
+    <row r="5718">
+      <c r="A5718" s="1" t="n">
+        <v>45142.0</v>
+      </c>
+      <c r="B5718" s="2" t="n">
+        <v>3288.0842</v>
+      </c>
+    </row>
+    <row r="5719">
+      <c r="A5719" s="1" t="n">
+        <v>45145.0</v>
+      </c>
+      <c r="B5719" s="2" t="n">
+        <v>3268.8311</v>
+      </c>
+    </row>
+    <row r="5720">
+      <c r="A5720" s="1" t="n">
+        <v>45146.0</v>
+      </c>
+      <c r="B5720" s="2" t="n">
+        <v>3260.6196</v>
+      </c>
+    </row>
+    <row r="5721">
+      <c r="A5721" s="1" t="n">
+        <v>45147.0</v>
+      </c>
+      <c r="B5721" s="2" t="n">
+        <v>3244.4867</v>
+      </c>
+    </row>
+    <row r="5722">
+      <c r="A5722" s="1" t="n">
+        <v>45148.0</v>
+      </c>
+      <c r="B5722" s="2" t="n">
+        <v>3254.5597</v>
+      </c>
+    </row>
+    <row r="5723">
+      <c r="A5723" s="1" t="n">
+        <v>45149.0</v>
+      </c>
+      <c r="B5723" s="2" t="n">
+        <v>3189.248</v>
+      </c>
+    </row>
+    <row r="5724">
+      <c r="A5724" s="1" t="n">
+        <v>45152.0</v>
+      </c>
+      <c r="B5724" s="2" t="n">
+        <v>3178.4272</v>
+      </c>
+    </row>
+    <row r="5725">
+      <c r="A5725" s="1" t="n">
+        <v>45153.0</v>
+      </c>
+      <c r="B5725" s="2" t="n">
+        <v>3176.1758</v>
+      </c>
+    </row>
+    <row r="5726">
+      <c r="A5726" s="1" t="n">
+        <v>45154.0</v>
+      </c>
+      <c r="B5726" s="2" t="n">
+        <v>3150.1277</v>
+      </c>
+    </row>
+    <row r="5727">
+      <c r="A5727" s="1" t="n">
+        <v>45155.0</v>
+      </c>
+      <c r="B5727" s="2" t="n">
+        <v>3163.7393</v>
+      </c>
+    </row>
+    <row r="5728">
+      <c r="A5728" s="1" t="n">
+        <v>45156.0</v>
+      </c>
+      <c r="B5728" s="2" t="n">
+        <v>3131.953</v>
+      </c>
+    </row>
+    <row r="5729">
+      <c r="A5729" s="1" t="n">
+        <v>45159.0</v>
+      </c>
+      <c r="B5729" s="2" t="n">
+        <v>3092.9777</v>
+      </c>
+    </row>
+    <row r="5730">
+      <c r="A5730" s="1" t="n">
+        <v>45160.0</v>
+      </c>
+      <c r="B5730" s="2" t="n">
+        <v>3120.3338</v>
+      </c>
+    </row>
+    <row r="5731">
+      <c r="A5731" s="1" t="n">
+        <v>45161.0</v>
+      </c>
+      <c r="B5731" s="2" t="n">
+        <v>3078.4021</v>
+      </c>
+    </row>
+    <row r="5732">
+      <c r="A5732" s="1" t="n">
+        <v>45162.0</v>
+      </c>
+      <c r="B5732" s="2" t="n">
+        <v>3082.2439</v>
+      </c>
+    </row>
+    <row r="5734">
+      <c r="A5734" s="3" t="inlineStr">
         <is>
           <t>数据来源：Wind</t>
         </is>
